--- a/data/cargas/master data/premissa.xlsx
+++ b/data/cargas/master data/premissa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydagReact\data\cargas\master data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a-react\a - meus projetos\cydag\data\cargas\master data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3680E62-ED36-414C-920B-4C3AF766ED8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F84680-4BF2-4BF8-802D-61BF9CBFA54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -734,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="K8">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L11">
         <v>9999</v>
